--- a/biology/Zoologie/Blennius/Blennius.xlsx
+++ b/biology/Zoologie/Blennius/Blennius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blennius est un genre de poissons osseux de la famille des Blenniidae (les « blennies »).
 Ce genre, décrit par Linné en 1758, était à l'origine le seul genre de blennies. On lui attribua donc plusieurs centaines d'espèces de blennies au cours de l'histoire de la biologie, mais l'essentiel d'entre elles a été reclassé dans d'autres genres de la famille des Blenniidae. Ainsi, les sources anciennes décrivent souvent beaucoup plus de Blennius qu'on ne compte aujourd'hui. 
@@ -512,12 +524,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (3 décembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (3 décembre 2014) :
 Blennius normani Poll, 1949
 Blennius ocellaris Linnaeus, 1758 -- Blennie ocellée
-Selon ITIS      (3 décembre 2014)[1] :
+Selon ITIS      (3 décembre 2014) :
 Blennius maoricus Kner, 1864 (reclassé comme Parablennius tasmanianus par WoRMS)
 Blennius normani Poll, 1949
 Blennius ocellaris Linnaeus, 1758</t>
